--- a/Chaldal_scraper/scrapped_data/Chaldaal_rawdata_v1.2.xlsx
+++ b/Chaldal_scraper/scrapped_data/Chaldaal_rawdata_v1.2.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="menu_urls" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="item_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -617,312 +616,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>item</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>quantity</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>price</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Harpic Liquid Toilet Cleaner Original</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1 ltr</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>৳ 179</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Highlights: Removes tough stains Kills 99.9% of germs Leaves toilet sparkly Clean, hygienic and visibly neat Description: Harpic Toilet Cleaner Liquid 1L is a specialized all-in-one product, which is the ultimate one stop solution for all your toilet cleaning needs. Unlike ordinary toilet cleaners Harpic Power Plus has a thick liquid formula that clings to the toilet surface to clean deeply from the rim to the u-bend. Harpic toilet cleaner removes 99.9% of germs. Usage Information: Press Harpic Toilet Cleaner Liquid cap and twist to open, squeeze liquid around the toilet bowl and rim, leave for 5-10mins, finally scrub gently using a brush and flush. Safety Measure: Always use Harpic separately. Do not mix with other products. This product is not edible and harmful for eyes and skin. Wash with water immediately in case of contact with Skin or Eyes and consult a doctor. Read label for detail. About the Manufacturer: Harpic is a registered Trademark of Reckitt PLC headquartered in England. The first Harpic product was manufactured during 1920s in England. Harpic is the number 1 selling toilet cleaner in the world. Harpic products are made in Bangladesh by Reckitt (Bangladesh) PLC.</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Flash Sales</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Chaldal Basic Dishwashing Bar</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>100 gm</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>৳ 12</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chaldal Basic Dishwashing Bar with the power of 100 lemons helps to clean tough grease the fastest. It gives you a pleasant cleaning experience with its refreshing lemon fragrance. It removes stains easily. It is tough on stains, gentle on your hands. Just take a little bit of Chaldal Basic Dishwashing Bar on your scrubber and clean your cooking vessels. So go ahead and enjoy the Chaldal Basic Dishwashing Bar experience. </t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Flash Sales</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Chicken Eggs (Layer)</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>12 pcs</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>৳ 125</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Weight without Box: 750 gm ±50 gm Weight with Box: 830 gm ±50 gm  Eggs are an all-natural source of high-quality protein and a number of other nutrients, all for 70 calories an egg. 100% fresh and healthy.</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Popular</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Deshi Peyaj (Local Onion) ± 50 gm</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1 kg</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>৳ 69</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>30-35 pcs  Though all vegetables are important for health, certain kinds offer unique benefits.  Onions are members of the Allium genus of flowering plants that also includes garlic, shallots, leeks and chives.  These vegetables contain various vitamins, minerals and potent plant compounds that have been shown to promote health in many ways.  In fact, the medicinal properties of onions have been recognized since ancient times, when they were used to treat ailments like headaches, heart disease and mouth sores.  Nutritional facts/Ingredients : Benefits: -Packed With Nutrients -May Benefit Heart Health -Loaded With Antioxidants -Contain Cancer-Fighting Compounds -Help Control Blood Sugar -May Boost Bone Density -Have Antibacterial Properties -May Boost Digestive Health -Easy to Add to Your Diet.</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Popular</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Brazil Flag (60 x 34 inch)</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>each</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>৳ 85</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Toys &amp; Sports</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Happy Anniversary Foil (Silver) 16 Letters</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>৳ 119</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>16 pcs foil letter. Color: Silver. Size: standard</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Toys &amp; Sports</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Astha Foods Orange Peel Powder</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>100 gm</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>৳ 129</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Origin- Bangladesh</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Beauty &amp; MakeUp</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Meril Nail Polish Remover</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>40 ml</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>৳ 40</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Gentle to your nail &amp; easily removes your nail polish with nourishing formula.</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Beauty &amp; MakeUp</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Fabric Lagbe Cotton Saree (JSH-03)</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>each</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>৳ 535</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>12 hands long 100% cotton saree. Cotton saree completely handmade with black and red color yarn. A saree made to perfection by the weavers of Tangail. Solid colors and attractive designs</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Fashion &amp; Lifestyle</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Bangladesh National Cricket Team Jersey (L)</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>each</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>৳ 799</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Size L (Chest 20.5 Inch, Height 28 inch)</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Fashion &amp; Lifestyle</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>